--- a/Input.xlsx
+++ b/Input.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26914"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{63512EC8-652D-4C99-8AC3-12BBF068E444}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LastWeek\PycharmProjects\KNN\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5046FDB-C66B-41FF-B04F-BF064BA42FD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>56 57</t>
   </si>
@@ -58,13 +63,19 @@
   </si>
   <si>
     <t>51 52</t>
+  </si>
+  <si>
+    <t>55 56</t>
+  </si>
+  <si>
+    <t>49 50</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -412,66 +423,76 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
